--- a/data_year/zb/人民生活/全国居民按收入五等份分组的收入情况.xlsx
+++ b/data_year/zb/人民生活/全国居民按收入五等份分组的收入情况.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,11 +494,15 @@
       <c r="C3" t="n">
         <v>10887</v>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="n">
+        <v>17631</v>
+      </c>
       <c r="E3" t="n">
         <v>4747</v>
       </c>
-      <c r="F3" t="inlineStr"/>
+      <c r="F3" t="n">
+        <v>50968</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -507,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29438</v>
+        <v>29437.64</v>
       </c>
       <c r="C4" t="n">
-        <v>11894</v>
+        <v>11894.02</v>
       </c>
       <c r="D4" t="n">
-        <v>19320</v>
+        <v>19320.11</v>
       </c>
       <c r="E4" t="n">
-        <v>5221</v>
+        <v>5221.17</v>
       </c>
       <c r="F4" t="n">
-        <v>54544</v>
+        <v>54543.54</v>
       </c>
     </row>
     <row r="5">
@@ -529,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>31990</v>
+        <v>31990.4</v>
       </c>
       <c r="C5" t="n">
-        <v>12899</v>
+        <v>12898.92</v>
       </c>
       <c r="D5" t="n">
-        <v>20924</v>
+        <v>20924.35</v>
       </c>
       <c r="E5" t="n">
-        <v>5529</v>
+        <v>5528.7</v>
       </c>
       <c r="F5" t="n">
-        <v>59259</v>
+        <v>59259.46</v>
       </c>
     </row>
     <row r="6">
@@ -551,19 +555,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34547</v>
+        <v>34546.8408921384</v>
       </c>
       <c r="C6" t="n">
-        <v>13843</v>
+        <v>13842.7815106234</v>
       </c>
       <c r="D6" t="n">
-        <v>22495</v>
+        <v>22495.316792668</v>
       </c>
       <c r="E6" t="n">
-        <v>5958</v>
+        <v>5958.426539016</v>
       </c>
       <c r="F6" t="n">
-        <v>64934</v>
+        <v>64933.9617724008</v>
       </c>
     </row>
     <row r="7">
@@ -573,19 +577,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36471</v>
+        <v>36471.36</v>
       </c>
       <c r="C7" t="n">
-        <v>14361</v>
+        <v>14360.52</v>
       </c>
       <c r="D7" t="n">
-        <v>23189</v>
+        <v>23188.9</v>
       </c>
       <c r="E7" t="n">
-        <v>6440</v>
+        <v>6440.48</v>
       </c>
       <c r="F7" t="n">
-        <v>70640</v>
+        <v>70639.50999999999</v>
       </c>
     </row>
     <row r="8">
@@ -595,19 +599,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39230</v>
+        <v>39230.49</v>
       </c>
       <c r="C8" t="n">
-        <v>15777</v>
+        <v>15776.96</v>
       </c>
       <c r="D8" t="n">
-        <v>25035</v>
+        <v>25034.72</v>
       </c>
       <c r="E8" t="n">
-        <v>7380</v>
+        <v>7380.38</v>
       </c>
       <c r="F8" t="n">
-        <v>76401</v>
+        <v>76400.72</v>
       </c>
     </row>
     <row r="9">
@@ -617,19 +621,63 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>41172</v>
+        <v>41171.74</v>
       </c>
       <c r="C9" t="n">
-        <v>16443</v>
+        <v>16442.72</v>
       </c>
       <c r="D9" t="n">
-        <v>26249</v>
+        <v>26248.87</v>
       </c>
       <c r="E9" t="n">
-        <v>7869</v>
+        <v>7868.75</v>
       </c>
       <c r="F9" t="n">
-        <v>80294</v>
+        <v>80293.83</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>44948.9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>18445</v>
+      </c>
+      <c r="D10" t="n">
+        <v>29053.3</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8332.799999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>85835.8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>47397.41</v>
+      </c>
+      <c r="C11" t="n">
+        <v>19302.71</v>
+      </c>
+      <c r="D11" t="n">
+        <v>30598.3</v>
+      </c>
+      <c r="E11" t="n">
+        <v>8601.129999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>90116.28999999999</v>
       </c>
     </row>
   </sheetData>
